--- a/Documentations/数据分析表格汇总.xlsx
+++ b/Documentations/数据分析表格汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan\Documents\GitHub\jiaanpei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan\Documents\GitHub\jiaanpei\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="154">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,6 +583,54 @@
   </si>
   <si>
     <t>车享配数据与杭州本地化价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优闪订基础供货数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_zhejiang_local_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优闪订数据与浙江本地化价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_zhejiang_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhejiang_local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1906,26 +1954,26 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="E37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2005,6 +2053,58 @@
       </c>
       <c r="H40" s="3">
         <v>42945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="3">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="3">
+        <v>42949</v>
       </c>
     </row>
   </sheetData>

--- a/Documentations/数据分析表格汇总.xlsx
+++ b/Documentations/数据分析表格汇总.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +631,22 @@
   </si>
   <si>
     <t>youshanding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_hangzhou_claim_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优闪订数据与杭州本地化价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_hangzhou_cmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2104,6 +2120,32 @@
         <v>153</v>
       </c>
       <c r="H42" s="3">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="3">
         <v>42949</v>
       </c>
     </row>

--- a/Documentations/数据分析表格汇总.xlsx
+++ b/Documentations/数据分析表格汇总.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="169">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,6 +647,50 @@
   </si>
   <si>
     <t>youshanding_hangzhou_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhouyihong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州一弘基础供货数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhouyihong_sichuan_claim_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州一弘数据与四川理赔数据对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhouyihong_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_lclaim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1082,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2147,6 +2191,58 @@
       </c>
       <c r="H43" s="3">
         <v>42949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="3">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="3">
+        <v>42950</v>
       </c>
     </row>
   </sheetData>

--- a/Documentations/数据分析表格汇总.xlsx
+++ b/Documentations/数据分析表格汇总.xlsx
@@ -735,7 +735,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +792,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1144,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1193,26 +1208,26 @@
         <v>42936</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2115,29 +2130,29 @@
         <v>42945</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="10">
         <v>42949</v>
       </c>
     </row>
@@ -2193,29 +2208,29 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="10">
         <v>42950</v>
       </c>
     </row>

--- a/Documentations/数据分析表格汇总.xlsx
+++ b/Documentations/数据分析表格汇总.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Cognos" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="183">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,61 @@
   <si>
     <t>base_lclaim</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_supply_parts_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supply_parts_hangzhou_claim_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货基础数据与杭州理赔价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts.base_supply_parts_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supply_parts_hangzhou_cmp</t>
   </si>
 </sst>
 </file>
@@ -1141,1010 +1196,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="37.625" customWidth="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>42936</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>42919</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3">
         <v>42919</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
         <v>42920</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
         <v>42916</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3">
         <v>42923</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>42925</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3">
         <v>42942</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3">
         <v>42919</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>42925</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="3">
         <v>42915</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="3">
         <v>42915</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="3">
         <v>42913</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F30" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F31" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F32" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F34" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F35" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="3">
         <v>42915</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="F37" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="H37" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="7">
         <v>42945</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>42945</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>42945</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>146</v>
@@ -2152,112 +2327,185 @@
       <c r="G41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" s="10">
         <v>42949</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>147</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42949</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>154</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42949</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I44" s="10">
         <v>42950</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>163</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I46" s="7">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="3">
+        <v>42954</v>
       </c>
     </row>
   </sheetData>

--- a/Documentations/数据分析表格汇总.xlsx
+++ b/Documentations/数据分析表格汇总.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="193">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,11 +594,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>优闪订基础供货数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_zhejiang_local_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优闪订数据与浙江本地化价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_zhejiang_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhejiang_local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_hangzhou_claim_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优闪订数据与杭州本地化价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youshanding_hangzhou_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhouyihong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州一弘基础供货数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhouyihong_sichuan_claim_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州一弘数据与四川理赔数据对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhouyihong_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_lclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_supply_parts_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优闪订基础供货数据</t>
+    <t>供货基础数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -606,11 +714,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>youshanding_zhejiang_local_cmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>analysis</t>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supply_parts_hangzhou_claim_cmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,11 +730,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优闪订数据与浙江本地化价格对比分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>youshanding_zhejiang_cmp</t>
+    <t>供货基础数据与杭州理赔价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts.base_supply_parts_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supply_parts_hangzhou_cmp</t>
+  </si>
+  <si>
+    <t>jiali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州嘉利基础供货数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiali_zhejiang_local_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州嘉利数据与浙江本地化价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiali</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -630,123 +785,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>youshanding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>youshanding_hangzhou_claim_cmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优闪订数据与杭州本地化价格对比分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>youshanding_hangzhou_cmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangzhouyihong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州一弘基础供货数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangzhouyihong_sichuan_claim_cmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州一弘数据与四川理赔数据对比分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangzhouyihong_cmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_lclaim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_supply_parts_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供货基础数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supply_parts_hangzhou_claim_cmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供货基础数据与杭州理赔价格对比分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parts.base_supply_parts_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supply_parts_hangzhou_cmp</t>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1196,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1245,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -1274,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -1300,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1326,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1352,7 +1392,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1378,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -1404,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -1430,7 +1470,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1456,7 +1496,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1482,7 +1522,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1508,7 +1548,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
@@ -1534,7 +1574,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -1560,7 +1600,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>39</v>
@@ -1586,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -1612,7 +1652,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -1641,7 +1681,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1670,7 +1710,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -1699,7 +1739,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -1728,7 +1768,7 @@
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -1754,7 +1794,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
@@ -1783,7 +1823,7 @@
         <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -1812,7 +1852,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -1841,7 +1881,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>76</v>
@@ -1870,7 +1910,7 @@
         <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>76</v>
@@ -1899,7 +1939,7 @@
         <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>76</v>
@@ -1928,7 +1968,7 @@
         <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>76</v>
@@ -1957,7 +1997,7 @@
         <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>76</v>
@@ -1986,7 +2026,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>96</v>
@@ -2012,7 +2052,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>100</v>
@@ -2038,7 +2078,7 @@
         <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>100</v>
@@ -2064,7 +2104,7 @@
         <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>106</v>
@@ -2090,7 +2130,7 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>96</v>
@@ -2116,7 +2156,7 @@
         <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
@@ -2142,7 +2182,7 @@
         <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>96</v>
@@ -2168,7 +2208,7 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>76</v>
@@ -2197,7 +2237,7 @@
         <v>80</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>116</v>
@@ -2223,7 +2263,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>129</v>
@@ -2252,7 +2292,7 @@
         <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>135</v>
@@ -2281,7 +2321,7 @@
         <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
@@ -2310,25 +2350,25 @@
         <v>142</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="G41" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I41" s="10">
         <v>42949</v>
@@ -2336,28 +2376,28 @@
     </row>
     <row r="42" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I42" s="3">
         <v>42949</v>
@@ -2365,22 +2405,22 @@
     </row>
     <row r="43" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>128</v>
@@ -2394,28 +2434,28 @@
     </row>
     <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="H44" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I44" s="10">
         <v>42950</v>
@@ -2423,28 +2463,28 @@
     </row>
     <row r="45" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="I45" s="3">
         <v>42950</v>
@@ -2452,28 +2492,28 @@
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="G46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I46" s="7">
         <v>42954</v>
@@ -2481,31 +2521,89 @@
     </row>
     <row r="47" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I47" s="3">
         <v>42954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="10">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="3">
+        <v>42955</v>
       </c>
     </row>
   </sheetData>
